--- a/documents/forschungspraxis/pictures/convergence.xlsx
+++ b/documents/forschungspraxis/pictures/convergence.xlsx
@@ -36,16 +36,16 @@
     <t>Stromiteration</t>
   </si>
   <si>
-    <t>Newton Raphson</t>
-  </si>
-  <si>
-    <t>Fast-Decoupled-Loadflow</t>
-  </si>
-  <si>
     <t>HELM 64 Bit mit Stromiteration</t>
   </si>
   <si>
     <t>HELM 64 Bit mit Newton-Raphson</t>
+  </si>
+  <si>
+    <t>Fast-decoupled-load-flow</t>
+  </si>
+  <si>
+    <t>Newton-Raphson</t>
   </si>
 </sst>
 </file>
@@ -53,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -534,7 +534,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -700,10 +700,10 @@
                   <c:v>Stromiteration</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Newton Raphson</c:v>
+                  <c:v>Newton-Raphson</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Fast-Decoupled-Loadflow</c:v>
+                  <c:v>Fast-decoupled-load-flow</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>HELM 64 Bit</c:v>
@@ -770,11 +770,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="293522376"/>
-        <c:axId val="293521200"/>
+        <c:axId val="278516672"/>
+        <c:axId val="278519416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="293522376"/>
+        <c:axId val="278516672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,7 +817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293521200"/>
+        <c:crossAx val="278519416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -825,7 +825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="293521200"/>
+        <c:axId val="278519416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -939,7 +939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293522376"/>
+        <c:crossAx val="278516672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1099,7 +1099,7 @@
                   <c:v>Stromiteration</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Newton Raphson</c:v>
+                  <c:v>Newton-Raphson</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>HELM 64 Bit mit Stromiteration</c:v>
@@ -1161,11 +1161,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="291972728"/>
-        <c:axId val="291967632"/>
+        <c:axId val="278517064"/>
+        <c:axId val="278521768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="291972728"/>
+        <c:axId val="278517064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,7 +1208,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291967632"/>
+        <c:crossAx val="278521768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1216,7 +1216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291967632"/>
+        <c:axId val="278521768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -1330,7 +1330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="291972728"/>
+        <c:crossAx val="278517064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2798,7 +2798,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>0.24375364624023399</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>3.0518798828125001E-5</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0.24851457885742201</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0.24900287963867199</v>
